--- a/Data Files/Fix Bug/GSD-154/Auto_GSD-154.xlsx
+++ b/Data Files/Fix Bug/GSD-154/Auto_GSD-154.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-154\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1340BFDB-71F2-4505-B8DE-F81F05898DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11264C61-3A54-4ED9-A907-A4461E20F8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>creationDate</t>
   </si>
@@ -333,10 +333,7 @@
     <t>kj68asdnn6hj</t>
   </si>
   <si>
-    <t>2024-02-03</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1000,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -1034,9 +1031,6 @@
       </c>
       <c r="K2" t="s">
         <v>69</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="M2" t="s">
         <v>75</v>

--- a/Data Files/Fix Bug/GSD-154/Auto_GSD-154.xlsx
+++ b/Data Files/Fix Bug/GSD-154/Auto_GSD-154.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-154\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11264C61-3A54-4ED9-A907-A4461E20F8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383B4D7F-B6A9-492A-9F35-7729FBBA5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="12915" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
     <t>kj68asdnn6hj</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Fix Bug/GSD-154/Auto_GSD-154.xlsx
+++ b/Data Files/Fix Bug/GSD-154/Auto_GSD-154.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-154\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383B4D7F-B6A9-492A-9F35-7729FBBA5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9BC100-1933-4661-9D29-FEB0CB9680F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="12915" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="7305" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
     <t>kj68asdnn6hj</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
